--- a/src/main/resources/api.xlsx
+++ b/src/main/resources/api.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ETUK\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ETUK\Documents\dev\bk-ask-forum\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="127">
   <si>
     <t>STT</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>Xem thông tin 1 user</t>
-  </si>
-  <si>
-    <t>GET http://localhost:8080/api/users/{id}</t>
   </si>
   <si>
     <t>HttpStatus 200
@@ -139,9 +136,6 @@
     <t>Yêu cầu là admin</t>
   </si>
   <si>
-    <t>POST http://localhost:8080/api/categories</t>
-  </si>
-  <si>
     <t>{
  "name":"Java"
 }</t>
@@ -159,10 +153,6 @@
     <t>Lấy thông tin category có phân trang</t>
   </si>
   <si>
-    <t>GET 
-http://localhost:8080/api/categories?page=0&amp;size=2&amp;sort=+name</t>
-  </si>
-  <si>
     <t>Không cần</t>
   </si>
   <si>
@@ -173,295 +163,349 @@
     <t>Lấy thông tin tất cả các category</t>
   </si>
   <si>
-    <t>Đưa là list category có phân trang
-page bắt đầu là 0
-size không có mặc định là 1
-sort không có mặc định là +id, + là tăng dần, - là giảm dần
-thông tin đưa về gồm name và id</t>
-  </si>
-  <si>
     <t>Sửa tên category</t>
   </si>
   <si>
     <t>Yêu cầu là admin để trống hoặc trùng</t>
   </si>
   <si>
+    <t>Http 200 OK</t>
+  </si>
+  <si>
+    <t>thêm sau</t>
+  </si>
+  <si>
+    <t>Xóa category</t>
+  </si>
+  <si>
+    <t>id sai, Http 400</t>
+  </si>
+  <si>
+    <t>Thêm token</t>
+  </si>
+  <si>
+    <t>201 created
+cùng với thông tin question vừa thêm</t>
+  </si>
+  <si>
+    <t>400 Request
+Khi sai các điều kiện validate</t>
+  </si>
+  <si>
+    <t>Thêm question</t>
+  </si>
+  <si>
+    <t>POST
+http://localhost:8080/api/questions</t>
+  </si>
+  <si>
+    <t>Lấy thông tin question của category có phân trang</t>
+  </si>
+  <si>
+    <t>Tương tự như 1</t>
+  </si>
+  <si>
+    <t>Trả về list question như 1</t>
+  </si>
+  <si>
+    <t>Lấy thông tin question không có câu trả lời nào</t>
+  </si>
+  <si>
+    <t>Như trên</t>
+  </si>
+  <si>
+    <t>Lấy thông tin question</t>
+  </si>
+  <si>
+    <t>Xóa question</t>
+  </si>
+  <si>
+    <t>200 ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400 bad request nếu id sai. </t>
+  </si>
+  <si>
+    <t>Sửa question</t>
+  </si>
+  <si>
+    <t>Sửa question với user đã đăng nhập</t>
+  </si>
+  <si>
+    <t>400 bad request nếu id sai, hoặc content, category trống</t>
+  </si>
+  <si>
+    <t>Vote question</t>
+  </si>
+  <si>
+    <t>Thêm cho question 1 vote</t>
+  </si>
+  <si>
+    <t>Trả về list question . Thông tin question gồm id, content, categoryName, vote, userId
+Ở phần link có đường dẫn của trang pre, next, last</t>
+  </si>
+  <si>
+    <t>Thêm answer</t>
+  </si>
+  <si>
+    <t>POST
+http://localhost:8080/api/answers/question/4</t>
+  </si>
+  <si>
+    <t>{
+ "content":"Hàm có contructor."
+}</t>
+  </si>
+  <si>
+    <t>201 created
+thông tin answer vừa created</t>
+  </si>
+  <si>
+    <t>400 request</t>
+  </si>
+  <si>
+    <t>Lấy thông tin answer theo question có phân trang</t>
+  </si>
+  <si>
+    <t>Lấy thông tin answer theo câu hỏi sắp xếp theo thời gian sửa gần nhất</t>
+  </si>
+  <si>
+    <t>GET
+http://localhost:8080/api/answers/question/4?page=0&amp;size=3</t>
+  </si>
+  <si>
+    <t>Ra list câu trả lời</t>
+  </si>
+  <si>
+    <t>Lấy thông tin của answer theo question có phân trang</t>
+  </si>
+  <si>
+    <t>Lấy thông tin answer theo user sắp xếp theo trường mình vào</t>
+  </si>
+  <si>
+    <t>GET
+http://localhost:8080/api/answers/user/2?page=0&amp;size=2&amp;sort=-lastModified</t>
+  </si>
+  <si>
+    <t>Sửa answer</t>
+  </si>
+  <si>
     <t>PUT
-http://localhost:8080/api/categories/{id}</t>
-  </si>
-  <si>
-    <t>Http 200 OK</t>
-  </si>
-  <si>
-    <t>thêm sau</t>
-  </si>
-  <si>
-    <t>Xóa category</t>
+http://localhost:8080/api/answers/3</t>
+  </si>
+  <si>
+    <t>{
+ "content":"T không biết câu trả lời này."
+}</t>
+  </si>
+  <si>
+    <t>Xóa answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xóa answer </t>
   </si>
   <si>
     <t>DELETE
-http://localhost:8080/api/categories/{id}</t>
-  </si>
-  <si>
-    <t>id sai, Http 400</t>
+http://localhost:8080/api/answers/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vote </t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>GET
+http://localhost:8080/api/answers/2/vote</t>
+  </si>
+  <si>
+    <t>404 nếu id sai</t>
+  </si>
+  <si>
+    <t>Xem list user mình follow</t>
+  </si>
+  <si>
+    <t>Xem list user follow của user đã đăng nhập</t>
+  </si>
+  <si>
+    <t>Follow user</t>
+  </si>
+  <si>
+    <t>Follow user khi đã đăng nhập</t>
+  </si>
+  <si>
+    <t>GET
+http://localhost:8080/api/users/2/follow</t>
+  </si>
+  <si>
+    <t>Unfollow user</t>
+  </si>
+  <si>
+    <t>GET
+http://localhost:8080/api/users/2/unfollow</t>
+  </si>
+  <si>
+    <t>GET
+http://localhost:8080/api/users/follow?page=0&amp;size=2&amp;sort=+username</t>
+  </si>
+  <si>
+    <t>Ra list user</t>
+  </si>
+  <si>
+    <t>Xem list question mình follow</t>
+  </si>
+  <si>
+    <t>Follow question khi đã đăng nhập</t>
+  </si>
+  <si>
+    <t>Follow question</t>
+  </si>
+  <si>
+    <t>Unfollow question</t>
+  </si>
+  <si>
+    <t>GET
+http://localhost:8080/api/questions/2/unfollow</t>
+  </si>
+  <si>
+    <t>Xem list question follow của question đã đăng nhập</t>
+  </si>
+  <si>
+    <t>GET
+http://localhost:8080/api/questions/follow?page=0&amp;size=2&amp;sort=+questionname</t>
+  </si>
+  <si>
+    <t>Ra list question</t>
+  </si>
+  <si>
+    <t>GET
+http://localhost:8080/api/questions/2/follow</t>
+  </si>
+  <si>
+    <t>POST http://localhost:8080/api/users/{id}</t>
+  </si>
+  <si>
+    <t>Thêm answer khi user đã đăng nhập, {id} cuối là id của câu hỏi</t>
+  </si>
+  <si>
+    <t>sửa question với user đã đăng nhập</t>
+  </si>
+  <si>
+    <t>Lấy thông tin question với user tương ứng.
+Page bắt đầu từ 0
+Sort ko có mặc định là +id</t>
   </si>
   <si>
     <t>{
+"title":"Modifier trong Java?"
  "content":"Public trong Java là gì?",
  "category":"Java"
 }</t>
   </si>
   <si>
-    <t>Thêm token</t>
-  </si>
-  <si>
-    <t>201 created
-cùng với thông tin question vừa thêm</t>
-  </si>
-  <si>
-    <t>400 Request
-Khi sai các điều kiện validate</t>
-  </si>
-  <si>
-    <t>Thêm question dựa vào user vừa đăng nhập</t>
-  </si>
-  <si>
-    <t>Thêm question</t>
-  </si>
-  <si>
     <t>POST
-http://localhost:8080/api/questions</t>
-  </si>
-  <si>
-    <t>Lấy thông tin question của category có phân trang</t>
-  </si>
-  <si>
-    <t>Tương tự như 1</t>
-  </si>
-  <si>
-    <t>GET
-http://localhost:8080/api/questions/category?name=java&amp;page=0&amp;size=2&amp;sort=-createAt</t>
-  </si>
-  <si>
-    <t>Trả về list question như 1</t>
-  </si>
-  <si>
-    <t>Lấy thông tin question với user tương ứng.
-{page} page bắt đầu từ 0, không có thì mặc định là 0
-{size} số lượng question ứng với trang, không có thì mặc định là 1
-{sort} , + {feild} sắp xếp tăng dần theo field, -{field} sắp xếp giảm , dần, mặc định là +id</t>
-  </si>
-  <si>
-    <t>Lấy thông tin question không có câu trả lời nào</t>
-  </si>
-  <si>
-    <t>GET
-http://localhost:8080/api/questions/answer?quatity=0&amp;page=0&amp;size=2&amp;sort=-createAt</t>
-  </si>
-  <si>
-    <t>Như trên</t>
-  </si>
-  <si>
-    <t>Lấy thông tin question</t>
-  </si>
-  <si>
-    <t>GET
-http://localhost:8080/api/questions?page=0&amp;size=2&amp;sort=-createAt</t>
-  </si>
-  <si>
-    <t>Xóa question</t>
-  </si>
-  <si>
-    <t>DELETE
-http://localhost:8080/api/questions/3</t>
-  </si>
-  <si>
-    <t>200 ok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">400 bad request nếu id sai. </t>
-  </si>
-  <si>
-    <t>Xóa question với user đã đăng nhập
-Đáng lẽ có phần kiểm tra là member thì không được xóa câu hỏi đứa khác nhưng chưa làm</t>
-  </si>
-  <si>
-    <t>Sửa question</t>
-  </si>
-  <si>
-    <t>Sửa question với user đã đăng nhập</t>
-  </si>
-  <si>
-    <t>PUT
-http://localhost:8080/api/questions/4</t>
+http://localhost:8080/api/questions/user/1/paginated</t>
+  </si>
+  <si>
+    <t>{
+ "page":"0",
+ "size":"2",
+ "sort":"+vote"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+ "page":"0",
+ "size":"2",
+ "name":"Java",
+ "sort":"-createAt"
+}
+</t>
+  </si>
+  <si>
+    <t>POST
+http://localhost:8080/api/questions/category/paginated</t>
+  </si>
+  <si>
+    <t>POST
+http://localhost:8080/api/questions/answer/paginated</t>
+  </si>
+  <si>
+    <t>{
+ "page":"0",
+ "size":"2",
+ "quatity":"0"
+}</t>
+  </si>
+  <si>
+    <t>{
+ "page":"0",
+ "size":"2",
+ "sort":"-lastModified"
+}</t>
+  </si>
+  <si>
+    <t>POST
+http://localhost:8080/api/questions/paginated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xóa question với user đã đăng nhập
+</t>
+  </si>
+  <si>
+    <t>POST
+http://localhost:8080/api/questions/3/delete</t>
+  </si>
+  <si>
+    <t>POST
+http://localhost:8080/api/questions/4/update</t>
+  </si>
+  <si>
+    <t>POST
+http://localhost:8080/api/questions/4/vote</t>
   </si>
   <si>
     <t xml:space="preserve">
 {
+"title":"ABC"
  "content":"Hàm abstract có contructor không?",
  "category":"Java"
 }</t>
   </si>
   <si>
-    <t>400 bad request nếu id sai, hoặc content, category trống</t>
-  </si>
-  <si>
-    <t>Vote question</t>
-  </si>
-  <si>
-    <t>Thêm cho question 1 vote</t>
-  </si>
-  <si>
-    <t>GET
-http://localhost:8080/api/questions/4/vote</t>
-  </si>
-  <si>
-    <t>GET
-http://localhost:8080/api/questions/users/1?page=0&amp;size=3&amp;sort=-vote</t>
-  </si>
-  <si>
-    <t>Trả về list question . Thông tin question gồm id, content, categoryName, vote, userId
-Ở phần link có đường dẫn của trang pre, next, last</t>
-  </si>
-  <si>
-    <t>Thêm answer</t>
-  </si>
-  <si>
-    <t>Thêm answer khi user đã đăng nhập</t>
+    <t xml:space="preserve">Đưa là list category có phân trang
+page bắt đầu là 0
+</t>
   </si>
   <si>
     <t>POST
-http://localhost:8080/api/answers/question/4</t>
+http://localhost:8080/api/categories/paginated</t>
   </si>
   <si>
     <t>{
- "content":"Hàm có contructor."
+ "page":"0",
+ "size":"2"
 }</t>
   </si>
   <si>
-    <t>201 created
-thông tin answer vừa created</t>
-  </si>
-  <si>
-    <t>400 request</t>
-  </si>
-  <si>
-    <t>Lấy thông tin answer theo question có phân trang</t>
-  </si>
-  <si>
-    <t>Lấy thông tin answer theo câu hỏi sắp xếp theo thời gian sửa gần nhất</t>
-  </si>
-  <si>
-    <t>GET
-http://localhost:8080/api/answers/question/4?page=0&amp;size=3</t>
-  </si>
-  <si>
-    <t>Ra list câu trả lời</t>
-  </si>
-  <si>
-    <t>Lấy thông tin của answer theo question có phân trang</t>
-  </si>
-  <si>
-    <t>Lấy thông tin answer theo user sắp xếp theo trường mình vào</t>
-  </si>
-  <si>
-    <t>GET
-http://localhost:8080/api/answers/user/2?page=0&amp;size=2&amp;sort=-lastModified</t>
-  </si>
-  <si>
-    <t>Sửa answer</t>
-  </si>
-  <si>
-    <t>PUT
-http://localhost:8080/api/answers/3</t>
-  </si>
-  <si>
-    <t>{
- "content":"T không biết câu trả lời này."
-}</t>
-  </si>
-  <si>
-    <t>Xóa answer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xóa answer </t>
-  </si>
-  <si>
-    <t>DELETE
-http://localhost:8080/api/answers/3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vote </t>
-  </si>
-  <si>
-    <t>answer</t>
-  </si>
-  <si>
-    <t>GET
-http://localhost:8080/api/answers/2/vote</t>
-  </si>
-  <si>
-    <t>404 nếu id sai</t>
-  </si>
-  <si>
-    <t>Xem list user mình follow</t>
-  </si>
-  <si>
-    <t>Xem list user follow của user đã đăng nhập</t>
-  </si>
-  <si>
-    <t>Follow user</t>
-  </si>
-  <si>
-    <t>Follow user khi đã đăng nhập</t>
-  </si>
-  <si>
-    <t>GET
-http://localhost:8080/api/users/2/follow</t>
-  </si>
-  <si>
-    <t>Unfollow user</t>
-  </si>
-  <si>
-    <t>GET
-http://localhost:8080/api/users/2/unfollow</t>
-  </si>
-  <si>
-    <t>GET
-http://localhost:8080/api/users/follow?page=0&amp;size=2&amp;sort=+username</t>
-  </si>
-  <si>
-    <t>Ra list user</t>
-  </si>
-  <si>
-    <t>Xem list question mình follow</t>
-  </si>
-  <si>
-    <t>Follow question khi đã đăng nhập</t>
-  </si>
-  <si>
-    <t>Follow question</t>
-  </si>
-  <si>
-    <t>Unfollow question</t>
-  </si>
-  <si>
-    <t>GET
-http://localhost:8080/api/questions/2/unfollow</t>
-  </si>
-  <si>
-    <t>Xem list question follow của question đã đăng nhập</t>
-  </si>
-  <si>
-    <t>GET
-http://localhost:8080/api/questions/follow?page=0&amp;size=2&amp;sort=+questionname</t>
-  </si>
-  <si>
-    <t>Ra list question</t>
-  </si>
-  <si>
-    <t>GET
-http://localhost:8080/api/questions/2/follow</t>
+    <t xml:space="preserve">Đưa là list category
+</t>
+  </si>
+  <si>
+    <t>POST
+http://localhost:8080/api/categories/get</t>
+  </si>
+  <si>
+    <t>POST
+http://localhost:8080/api/categories/{id}/update</t>
+  </si>
+  <si>
+    <t>POST
+http://localhost:8080/api/categories/{id}/delete</t>
+  </si>
+  <si>
+    <t>POST 
+http://localhost:8080/api/categories</t>
   </si>
 </sst>
 </file>
@@ -847,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H4"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,10 +991,10 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>10</v>
@@ -959,7 +1003,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -1403,8 +1447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1449,153 +1493,162 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="G3" s="6" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>56</v>
+        <v>109</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="6"/>
+        <v>110</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="6"/>
+        <v>113</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1603,23 +1656,23 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1762,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H74"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1810,25 +1863,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -1836,18 +1889,18 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="H4" s="6"/>
     </row>
@@ -1856,18 +1909,18 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H5" s="6"/>
     </row>
@@ -1876,25 +1929,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1902,23 +1955,23 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1926,23 +1979,23 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2614,8 +2667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2660,25 +2713,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -2686,20 +2739,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="H4" s="6"/>
     </row>
@@ -2708,10 +2763,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -2722,25 +2781,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2748,23 +2807,23 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3084,18 +3143,18 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="5"/>
@@ -3105,20 +3164,20 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="5"/>
@@ -3128,20 +3187,20 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="5"/>
@@ -3705,7 +3764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -3721,7 +3780,7 @@
     <col min="8" max="8" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -3752,18 +3811,18 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="H3" s="6"/>
     </row>
@@ -3772,20 +3831,20 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H4" s="6"/>
     </row>
@@ -3794,20 +3853,20 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H5" s="6"/>
     </row>

--- a/src/main/resources/api.xlsx
+++ b/src/main/resources/api.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="136">
   <si>
     <t>STT</t>
   </si>
@@ -506,6 +506,37 @@
   <si>
     <t>POST 
 http://localhost:8080/api/categories</t>
+  </si>
+  <si>
+    <t>Thay đổi pass</t>
+  </si>
+  <si>
+    <t>Thay đổi password</t>
+  </si>
+  <si>
+    <t>POST http://localhost:8080/api/users/changePass</t>
+  </si>
+  <si>
+    <t>Có token</t>
+  </si>
+  <si>
+    <t>Thông tin user vừa thay đổi pass</t>
+  </si>
+  <si>
+    <t>Thay đổi profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POST
+http://localhost:8080/api/users/changeProfile
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">file json có dạng
+{"fullname":"tuan", "email":"tuan@gmail.com"
+Ngoài ra có file </t>
+  </si>
+  <si>
+    <t>Thông tin user</t>
   </si>
 </sst>
 </file>
@@ -891,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,24 +1038,50 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2667,7 +2724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
